--- a/biology/Botanique/Reinette_de_Champagne/Reinette_de_Champagne.xlsx
+++ b/biology/Botanique/Reinette_de_Champagne/Reinette_de_Champagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Reinette de Champagne est un très ancien cultivar de pommier domestique. C'est une pomme de conservation.
 Nom botanique : Malus domestica 'Champagner Reinette'.
@@ -513,12 +525,14 @@
           <t>Description du fruit</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Usage : pomme d'hiver de table.
 Calibre : moyen.
 Couleur de la pelure :  jaune-verdâtre, parfois rayée d'un peu de rouge.
-Chair :  blanche, croquante, légèrement parfumée [1].</t>
+Chair :  blanche, croquante, légèrement parfumée .</t>
         </is>
       </c>
     </row>
@@ -546,7 +560,9 @@
           <t>Origine et historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle existe déjà avant 1700, en Champagne.
 Elle est décrite par Diel en 1799 sous le nom de 'Loskrieger'.
@@ -578,10 +594,12 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Floraison :  groupe C [2].
-S-génotype :  S2S4 [3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Floraison :  groupe C .
+S-génotype :  S2S4 .
 Sources pour fécondation :
 Incompatible : 'Jinhong'.
 Semi-compatibles : 'Dantziger Kant'…
@@ -613,9 +631,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Fructification :  type spur[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Fructification :  type spur.
 Maladies : 
 Tavelure :  susceptible,
 Chancre :  susceptible.
